--- a/Modul 02/day 1/testFile.xlsx
+++ b/Modul 02/day 1/testFile.xlsx
@@ -1,15 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27907"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincent/Desktop/DataSciencePython/Modul 02/day 1/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14200"/>
   </bookViews>
   <sheets>
     <sheet name="Inventori Gudang" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -34,23 +47,23 @@
     <t>Tamiya</t>
   </si>
   <si>
-    <t>Bakugan</t>
-  </si>
-  <si>
-    <t>Pen Parker</t>
-  </si>
-  <si>
-    <t>200000</t>
-  </si>
-  <si>
-    <t>3</t>
+    <t>Tag Heuer Carrera 01</t>
+  </si>
+  <si>
+    <t>Seiko Presage Cocktail Starlight</t>
+  </si>
+  <si>
+    <t>Shure SE215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panerai Marina </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,14 +92,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -133,12 +152,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -165,14 +184,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -199,6 +219,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -374,14 +395,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="44.1640625" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -392,7 +420,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -403,7 +431,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -414,7 +442,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -425,15 +453,48 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>90000000</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" s="1">
+        <v>15000000</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B7" s="1">
+        <v>1800000</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>9</v>
+      </c>
+      <c r="B8">
+        <v>70000000</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
